--- a/data/Verif_Code.xlsx
+++ b/data/Verif_Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d04f23f7faf3ef/Bureau/PROFESSIONAL/CANADA/5_Cours/H25_MEC8211/0_Devoir 1/MEC8211_projet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5DE95D0-53A6-4465-ADD7-FC96FAD8553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{C5DE95D0-53A6-4465-ADD7-FC96FAD8553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2898D3-981A-41BB-B7B8-656C2DD7B3B7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5642C43C-961F-4D27-AFBA-005B79154A3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Dx</t>
   </si>
@@ -82,8 +82,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="169" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,8 +117,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -304,19 +304,19 @@
                 <c:formatCode>0.0000000E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2487343848876023E-4</c:v>
+                  <c:v>4.7838875002929671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.198734384887587E-4</c:v>
+                  <c:v>4.7838825002929672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1287343848875864E-4</c:v>
+                  <c:v>4.7838755002929672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0987343848875911E-4</c:v>
+                  <c:v>4.7838725002929667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0787343848876058E-4</c:v>
+                  <c:v>4.7838705002929665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,7 +515,566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Erreur en fonction de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>x</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.056250029296681E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9662500292967131E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8962500292966986E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8262500292966841E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.856250029296703E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BDF-428F-8A9B-F0FD7F04A4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="843636512"/>
+        <c:axId val="843648032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="843636512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4.000000000000001E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843648032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="843648032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>_h</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="843636512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1071,6 +1630,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1104,6 +2179,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>706437</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139303</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9394616A-C8AF-B45B-5EF0-5A042A0C2036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1429,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F63344-A5D2-4AE2-AC45-BD1F35E35E11}">
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1490,16 +2601,16 @@
         <v>1.6074999999999999E-2</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="C3:D8" si="0">($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
-        <v>1.6199873438488759E-2</v>
+        <f>($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
+        <v>4.7999625002929669</v>
       </c>
       <c r="E3" s="3">
-        <f>D3-C3</f>
-        <v>1.2487343848876023E-4</v>
+        <f t="shared" ref="E3:E8" si="0">D3-C3</f>
+        <v>4.7838875002929671</v>
       </c>
       <c r="F3" s="1">
-        <f>E3/D3 *100</f>
-        <v>0.7708297164351755</v>
+        <f t="shared" ref="F3:F8" si="1">E3/D3 *100</f>
+        <v>99.665101550292974</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
@@ -1527,22 +2638,22 @@
       </c>
       <c r="D4" s="1">
         <f>($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
-        <v>1.6199873438488759E-2</v>
+        <v>4.7999625002929669</v>
       </c>
       <c r="E4" s="3">
-        <f>D4-C4</f>
-        <v>1.198734384887587E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.7838825002929672</v>
       </c>
       <c r="F4" s="1">
-        <f>E4/D4 *100</f>
-        <v>0.73996527777775867</v>
+        <f t="shared" si="1"/>
+        <v>99.664997382812501</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4">
-        <f>0.24</f>
-        <v>0.24</v>
+        <f>1.6</f>
+        <v>1.6</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
@@ -1556,16 +2667,16 @@
         <v>1.6087000000000001E-2</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ref="D3:D8" si="2">($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.6199873438488759E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <f>D5-C5</f>
-        <v>1.1287343848875864E-4</v>
+        <v>4.7838755002929672</v>
       </c>
       <c r="F5" s="1">
-        <f>E5/D5 *100</f>
-        <v>0.69675506365738804</v>
+        <f t="shared" si="1"/>
+        <v>99.664851548339854</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1582,16 +2693,16 @@
         <v>1.609E-2</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>1.6199873438488759E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <f>D6-C6</f>
-        <v>1.0987343848875911E-4</v>
+        <v>4.7838725002929667</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/D6 *100</f>
-        <v>0.67823640046294642</v>
+        <f t="shared" si="1"/>
+        <v>99.664789047851556</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
@@ -1602,16 +2713,16 @@
         <v>1.6091999999999999E-2</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>1.6199873438488759E-2</v>
-      </c>
-      <c r="E7" s="3">
-        <f>D7-C7</f>
-        <v>1.0787343848876058E-4</v>
+        <v>4.7838705002929665</v>
       </c>
       <c r="F7" s="1">
-        <f>E7/D7 *100</f>
-        <v>0.66589062499999252</v>
+        <f t="shared" si="1"/>
+        <v>99.664747380859367</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
@@ -1622,32 +2733,146 @@
         <v>1.6091999999999999E-2</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>1.6199873438488759E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <f>D8-C8</f>
-        <v>1.0787343848876058E-4</v>
+        <v>4.7838705002929665</v>
       </c>
       <c r="F8" s="1">
-        <f>E8/D8 *100</f>
-        <v>0.66589062499999252</v>
+        <f t="shared" si="1"/>
+        <v>99.664747380859367</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>(LN(E7)-LN(E6))/(LN(B7)-LN(B6))</f>
-        <v>0.24788790674390462</v>
+        <v>5.6413826743821986E-6</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E11" s="4">
+      <c r="E11">
         <f>(LN(B7)-LN(B6))/(LN(E7)-LN(E6))</f>
-        <v>4.0340814246864802</v>
+        <v>177261.50798828984</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="F16" s="1"/>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.7694000000000001</v>
+      </c>
+      <c r="D17">
+        <f>($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17-C17</f>
+        <v>3.056250029296681E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <f>E17/D17 *100</f>
+        <v>0.6367237304687573</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C18">
+        <v>4.7702999999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D17:D21" si="3">($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ref="E18:E20" si="4">D18-C18</f>
+        <v>2.9662500292967131E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18:F20" si="5">E18/D18 *100</f>
+        <v>0.61797358398438895</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>4.7709999999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8962500292966986E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60339013671876085</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C20">
+        <v>4.7717000000000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8262500292966841E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58880668945313286</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.7713999999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>4.7999625002929669</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21" si="6">D21-C21</f>
+        <v>2.856250029296703E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21" si="7">E21/D21 *100</f>
+        <v>0.59505673828126182</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E24" s="4">
+        <f>(LN(E20)-LN(E19))/(LN(B20)-LN(B19))</f>
+        <v>0.15871517356454326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Verif_Code.xlsx
+++ b/data/Verif_Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d04f23f7faf3ef/Bureau/PROFESSIONAL/CANADA/5_Cours/H25_MEC8211/0_Devoir 1/MEC8211_projet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{C5DE95D0-53A6-4465-ADD7-FC96FAD8553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2898D3-981A-41BB-B7B8-656C2DD7B3B7}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{C5DE95D0-53A6-4465-ADD7-FC96FAD8553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF3B04D1-51B5-4A5A-BAC5-54B7F7BD1702}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5642C43C-961F-4D27-AFBA-005B79154A3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Dx</t>
   </si>
@@ -114,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +588,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -812,7 +811,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -934,7 +933,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2186,16 +2185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>706437</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134540</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139303</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>551656</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2542,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F63344-A5D2-4AE2-AC45-BD1F35E35E11}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2600,7 +2599,7 @@
       <c r="C3" s="2">
         <v>1.6074999999999999E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <f>($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
         <v>4.7999625002929669</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>1.6087000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D3:D8" si="2">($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
+        <f t="shared" ref="D5:D8" si="2">($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
         <v>4.7999625002929669</v>
       </c>
       <c r="E5" s="3">
@@ -2758,6 +2757,9 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>4.7702999999999998</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D17:D21" si="3">($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
+        <f t="shared" ref="D18:D21" si="3">($H$5*$H$4^3)/(3*$J$3*$H$2)</f>
         <v>4.7999625002929669</v>
       </c>
       <c r="E18" s="3">
@@ -2869,7 +2871,7 @@
       <c r="F22" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E24" s="4">
+      <c r="E24">
         <f>(LN(E20)-LN(E19))/(LN(B20)-LN(B19))</f>
         <v>0.15871517356454326</v>
       </c>
